--- a/SMD resistor kits/smd_resistor_kit.xlsx
+++ b/SMD resistor kits/smd_resistor_kit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taula\Desktop\Swissairtainer\BOM\Orderable_components\SMD resistor kits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F4523-7466-43B0-B8B8-20589F6717B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC01FC-F4C0-4135-8E27-6164CD320889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-8700" windowWidth="29040" windowHeight="17520" xr2:uid="{318DC4D5-5C95-4544-8275-E261FFCAFBA2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{318DC4D5-5C95-4544-8275-E261FFCAFBA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -863,12 +863,6 @@
     <t>CRGCQ0805F220K</t>
   </si>
   <si>
-    <t>603-AC0805FR-07470KL</t>
-  </si>
-  <si>
-    <t>AC0805FR-07470KL</t>
-  </si>
-  <si>
     <t>603-RC1206FR-07470KL</t>
   </si>
   <si>
@@ -921,6 +915,12 @@
   </si>
   <si>
     <t>Mouser Part Number</t>
+  </si>
+  <si>
+    <t>667-ERJ-6ENF4703V</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF4703V</t>
   </si>
 </sst>
 </file>
@@ -956,13 +956,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,23 +1275,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616ECAC4-F20E-4B0B-8AA7-DE1608D61CDB}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.53125" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="10.6640625" style="2"/>
     <col min="9" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,15 +1300,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1323,14 +1318,14 @@
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1346,8 +1341,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1363,8 +1358,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1380,8 +1375,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1397,8 +1392,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1414,8 +1409,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1431,8 +1426,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1448,8 +1443,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1465,8 +1460,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1482,8 +1477,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1499,8 +1494,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1516,8 +1511,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1533,8 +1528,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1550,8 +1545,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1567,8 +1562,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1578,14 +1573,14 @@
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1601,8 +1596,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1618,8 +1613,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1635,8 +1630,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1652,8 +1647,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1669,8 +1664,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1686,8 +1681,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1697,14 +1692,14 @@
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1720,8 +1715,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1737,8 +1732,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1754,8 +1749,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1771,8 +1766,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1788,8 +1783,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1805,8 +1800,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1822,8 +1817,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1839,8 +1834,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1856,8 +1851,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1873,8 +1868,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1890,8 +1885,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1907,8 +1902,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1924,8 +1919,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1941,8 +1936,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1958,8 +1953,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1975,8 +1970,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1992,8 +1987,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2009,8 +2004,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2026,8 +2021,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2043,8 +2038,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2060,8 +2055,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2077,8 +2072,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2094,8 +2089,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2111,8 +2106,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2128,8 +2123,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2145,8 +2140,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2162,8 +2157,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2179,8 +2174,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2196,8 +2191,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
         <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2213,8 +2208,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2230,8 +2225,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2247,8 +2242,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2264,8 +2259,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2281,8 +2276,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59">
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2298,8 +2293,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60">
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2315,8 +2310,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61">
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2332,8 +2327,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2349,8 +2344,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2366,8 +2361,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2383,8 +2378,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2400,8 +2395,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2417,8 +2412,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2434,8 +2429,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2451,8 +2446,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2468,8 +2463,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2485,8 +2480,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71">
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2502,8 +2497,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72">
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2519,8 +2514,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2536,8 +2531,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74">
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2553,8 +2548,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75">
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2570,8 +2565,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76">
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2587,8 +2582,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77">
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2604,8 +2599,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78">
         <v>25</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2621,8 +2616,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79">
         <v>25</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2638,8 +2633,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80">
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2655,8 +2650,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81">
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2672,8 +2667,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2689,8 +2684,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2706,8 +2701,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2723,8 +2718,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2740,8 +2735,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2757,8 +2752,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87">
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2774,8 +2769,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2791,8 +2786,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2808,8 +2803,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2825,8 +2820,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -2842,8 +2837,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92">
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2859,8 +2854,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93">
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2876,8 +2871,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94">
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2893,8 +2888,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95">
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -2910,8 +2905,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96">
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -2927,8 +2922,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97">
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2944,8 +2939,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98">
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2961,8 +2956,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99">
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -2978,8 +2973,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -2995,8 +2990,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3012,8 +3007,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102">
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3029,8 +3024,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103">
         <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3046,8 +3041,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104">
         <v>25</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3063,8 +3058,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105">
         <v>25</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3080,8 +3075,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106">
         <v>25</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3097,8 +3092,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3114,8 +3109,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108">
         <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3131,8 +3126,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3148,8 +3143,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110">
         <v>10</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3165,8 +3160,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111">
         <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3182,8 +3177,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112">
         <v>10</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3199,8 +3194,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113">
         <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3210,14 +3205,14 @@
         <v>44</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114">
         <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3227,14 +3222,14 @@
         <v>45</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115">
         <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3244,14 +3239,14 @@
         <v>46</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116">
         <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3267,8 +3262,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117">
         <v>10</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3278,14 +3273,14 @@
         <v>45</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118">
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3295,14 +3290,14 @@
         <v>46</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119">
         <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3318,8 +3313,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120">
         <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3335,8 +3330,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121">
         <v>10</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3352,8 +3347,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122">
         <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3369,8 +3364,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123">
         <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3386,8 +3381,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124">
         <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3397,179 +3392,83 @@
         <v>46</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3578,6 +3477,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB22F1547D7D4F82919EC743CAACBC" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="32393497de45bcc32aab6696db123f1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="83f9d718-8695-44fe-93c7-a4e5ea258f1b" xmlns:ns4="aaa9772f-a032-4180-ab8e-8699b78d9e7a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9a8acb6633ce6461978c0eb3f36d913" ns3:_="" ns4:_="">
     <xsd:import namespace="83f9d718-8695-44fe-93c7-a4e5ea258f1b"/>
@@ -3800,12 +3705,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3816,6 +3715,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A87644A-D91B-45E4-9649-B1739845F5A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="aaa9772f-a032-4180-ab8e-8699b78d9e7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="83f9d718-8695-44fe-93c7-a4e5ea258f1b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7444A96B-C48B-458B-B3E4-EA0C5A66B036}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3834,23 +3750,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A87644A-D91B-45E4-9649-B1739845F5A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="aaa9772f-a032-4180-ab8e-8699b78d9e7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="83f9d718-8695-44fe-93c7-a4e5ea258f1b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4820BFF1-C5ED-4B71-85E0-BCA99A195063}">
   <ds:schemaRefs>
